--- a/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Vial Number</t>
   </si>
@@ -118,13 +118,25 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Box Location</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +151,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,10 +196,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -484,62 +502,99 @@
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -558,6 +613,9 @@
       <c r="F4">
         <v>1234560001</v>
       </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
@@ -573,13 +631,13 @@
       <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.1</v>
-      </c>
-      <c r="N4">
+        <v>31.8</v>
+      </c>
+      <c r="P4">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>309</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +654,7 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -616,57 +674,57 @@
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -713,7 +771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -760,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -796,17 +854,17 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.4</v>
+        <v>29.7</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -842,17 +900,17 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>26.6</v>
+        <v>31.1</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -888,14 +946,14 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.5</v>
+        <v>28.4</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>318</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -931,11 +989,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>33</v>
+        <v>28.5</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Vial Number</t>
   </si>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,22 +494,23 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -530,9 +531,10 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -552,49 +554,52 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -616,28 +621,28 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.8</v>
-      </c>
-      <c r="P4">
+        <v>25.2</v>
+      </c>
+      <c r="Q4">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>389</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -854,11 +859,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.7</v>
+        <v>25.8</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -900,11 +905,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -946,11 +951,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>28.4</v>
+        <v>30.9</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -989,11 +994,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>28.5</v>
+        <v>30.1</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>398</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Vial Number</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,21 +499,22 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -532,9 +536,10 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="2"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -560,46 +565,49 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -621,28 +629,28 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>25.2</v>
-      </c>
-      <c r="Q4">
+        <v>30.2</v>
+      </c>
+      <c r="R4">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>313</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -859,11 +867,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>25.8</v>
+        <v>30.9</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -905,11 +913,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -951,11 +959,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.9</v>
+        <v>26.6</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -998,7 +1006,7 @@
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Vial Number</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Test tagging comment</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,11 +649,14 @@
       </c>
       <c r="Q4">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="R4">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>388</v>
+        <v>324</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -867,11 +873,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.9</v>
+        <v>25.5</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -913,11 +919,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>28.3</v>
+        <v>26.6</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -959,11 +965,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>26.6</v>
+        <v>30.1</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>337</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1002,11 +1008,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Vial Number</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Test tagging comment</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
+  </si>
+  <si>
+    <t>Smolt</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,12 +518,12 @@
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -540,9 +546,10 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="2"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -598,19 +605,22 @@
         <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -649,13 +659,16 @@
       </c>
       <c r="Q4">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.6</v>
+        <v>31.5</v>
       </c>
       <c r="R4">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>324</v>
-      </c>
-      <c r="V4" t="s">
+        <v>369</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -873,11 +886,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -919,11 +932,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>26.6</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -965,11 +978,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.1</v>
+        <v>32.1</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>396</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1008,11 +1021,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.6</v>
+        <v>31.5</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>322</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\test\parser_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9804A35-B7B5-4566-84DC-F96AB04CBB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -491,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,74 +559,74 @@
       <c r="W1" s="1"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -659,11 +669,11 @@
       </c>
       <c r="Q4">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.5</v>
+        <v>29.9</v>
       </c>
       <c r="R4">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -679,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,53 +716,53 @@
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -886,11 +896,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>25.1</v>
+        <v>32.1</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -932,11 +942,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -978,11 +988,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.1</v>
+        <v>27.1</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1021,11 +1031,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.5</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
